--- a/Registro/dd_registro_v1.xlsx
+++ b/Registro/dd_registro_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrieleBisi\Desktop\database\registro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\ITS Tech Talent Factory\Materiale del corso\Basi di Dati\DATABASE-FSD1\Registro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6EE5750-7D55-498E-9C83-250628886A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8CC2B-B4D2-44C5-B6B9-3EABD7F4CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRO" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
   <si>
     <t>Nome Attributo</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Assenza/Presenza</t>
   </si>
   <si>
-    <t>Max 1 Carattere</t>
-  </si>
-  <si>
     <t>Numero ordine</t>
   </si>
   <si>
@@ -150,38 +147,62 @@
     <t>Max 4 opzioni</t>
   </si>
   <si>
-    <t>max 15</t>
-  </si>
-  <si>
-    <t>sì</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Classe / Nome corso</t>
   </si>
   <si>
-    <t>max 45</t>
-  </si>
-  <si>
-    <t>max 70</t>
-  </si>
-  <si>
     <t>Partecipanti</t>
   </si>
   <si>
-    <t>max 2</t>
-  </si>
-  <si>
     <t>ID corso</t>
+  </si>
+  <si>
+    <t>Max 1 A/P</t>
+  </si>
+  <si>
+    <t>Max 40</t>
+  </si>
+  <si>
+    <t>Max 50</t>
+  </si>
+  <si>
+    <t>Max 4 Cifre</t>
+  </si>
+  <si>
+    <t>Max 15</t>
+  </si>
+  <si>
+    <t>Max 45</t>
+  </si>
+  <si>
+    <t>Max 70</t>
+  </si>
+  <si>
+    <t>Max 2</t>
+  </si>
+  <si>
+    <t>Nome docente</t>
+  </si>
+  <si>
+    <t>Nome tutor</t>
+  </si>
+  <si>
+    <t>Nome Codocente</t>
+  </si>
+  <si>
+    <t>Max 8</t>
+  </si>
+  <si>
+    <t>Max 16</t>
+  </si>
+  <si>
+    <t>Mattina/Pomeriggio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -210,6 +231,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,10 +261,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -231,13 +299,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -458,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -467,126 +541,132 @@
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="35" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -601,9 +681,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -613,66 +695,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -683,7 +778,9 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -693,81 +790,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -783,7 +882,9 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -793,88 +894,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -886,9 +997,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -898,72 +1011,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,9 +1102,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,71 +1116,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
